--- a/discreta.xlsx
+++ b/discreta.xlsx
@@ -278,13 +278,13 @@
   </sheetPr>
   <dimension ref="A3:K29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K17" activeCellId="0" sqref="K17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="4.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="4.69"/>
@@ -710,7 +710,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>

--- a/discreta.xlsx
+++ b/discreta.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="condicionales" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t xml:space="preserve">Cantidad de Gaseosa (Y)</t>
   </si>
@@ -64,23 +65,39 @@
     <t xml:space="preserve">E[XY]</t>
   </si>
   <si>
-    <t xml:space="preserve">1pt</t>
-  </si>
-  <si>
     <t xml:space="preserve">XY*pxy</t>
   </si>
   <si>
     <t xml:space="preserve">cov(X,Y)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P(X/y=0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P(X/y=1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P(X/y=2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p(X=x)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00"/>
     <numFmt numFmtId="166" formatCode="General"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -166,7 +183,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -196,6 +213,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -276,16 +297,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:K29"/>
+  <dimension ref="A3:I29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="4.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="4.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.76"/>
@@ -450,7 +470,7 @@
       </c>
       <c r="I14" s="0" t="n">
         <f aca="false">+G14*H14</f>
-        <v>0.616666666666666</v>
+        <v>0.616666666666667</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -482,7 +502,7 @@
       </c>
       <c r="I15" s="0" t="n">
         <f aca="false">+G15*H15</f>
-        <v>0.575000000000001</v>
+        <v>0.575</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -587,6 +607,10 @@
       <c r="H21" s="0" t="s">
         <v>10</v>
       </c>
+      <c r="I21" s="0" t="n">
+        <f aca="false">+I16</f>
+        <v>1.69166666666667</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="n">
@@ -603,6 +627,10 @@
       </c>
       <c r="H22" s="0" t="s">
         <v>8</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <f aca="false">+E20</f>
+        <v>1.13333333333333</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -645,13 +673,14 @@
       <c r="H25" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="K25" s="0" t="s">
-        <v>14</v>
+      <c r="I25" s="0" t="n">
+        <f aca="false">+F29</f>
+        <v>2.06666666666667</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C26" s="0" t="n">
         <f aca="false">+C22*C13</f>
@@ -663,7 +692,7 @@
       </c>
       <c r="E26" s="0" t="n">
         <f aca="false">+E22*E13</f>
-        <v>0.0833333333333334</v>
+        <v>0.0833333333333333</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -673,18 +702,18 @@
       </c>
       <c r="D27" s="0" t="n">
         <f aca="false">+D23*D14</f>
-        <v>0.333333333333334</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="E27" s="0" t="n">
         <f aca="false">+E23*E14</f>
         <v>0.333333333333333</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I27" s="0" t="n">
         <f aca="false">+F29-I16*E20</f>
-        <v>0.149444444444446</v>
+        <v>0.149444444444444</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -716,4 +745,217 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="n">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="C3" s="8" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="D3" s="8" t="n">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <f aca="false">+SUM(B3:D3)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8" t="n">
+        <v>0.0583333333333333</v>
+      </c>
+      <c r="C4" s="8" t="n">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="D4" s="8" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <f aca="false">+SUM(B4:D4)</f>
+        <v>0.308333333333334</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8" t="n">
+        <v>0.0166666666666667</v>
+      </c>
+      <c r="C5" s="8" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D5" s="8" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <f aca="false">+SUM(B5:D5)</f>
+        <v>0.191666666666667</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="8" t="n">
+        <f aca="false">+SUM(B3:B5)</f>
+        <v>0.116666666666667</v>
+      </c>
+      <c r="C6" s="8" t="n">
+        <f aca="false">+SUM(C3:C5)</f>
+        <v>0.633333333333334</v>
+      </c>
+      <c r="D6" s="8" t="n">
+        <f aca="false">+SUM(D3:D5)</f>
+        <v>0.25</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <f aca="false">+SUM(B3:D5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" s="4" t="n">
+        <f aca="false">+B3/$B$6</f>
+        <v>0.357142857142857</v>
+      </c>
+      <c r="C9" s="4" t="n">
+        <f aca="false">+C3/$C$6</f>
+        <v>0.657894736842105</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <f aca="false">+D3/$D$6</f>
+        <v>0.166666666666667</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <f aca="false">+E3</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" s="4" t="n">
+        <f aca="false">+B4/$B$6</f>
+        <v>0.5</v>
+      </c>
+      <c r="C10" s="4" t="n">
+        <f aca="false">+C4/$C$6</f>
+        <v>0.263157894736842</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <f aca="false">+D4/$D$6</f>
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <f aca="false">+E4</f>
+        <v>0.308333333333334</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" s="4" t="n">
+        <f aca="false">+B5/$B$6</f>
+        <v>0.142857142857143</v>
+      </c>
+      <c r="C11" s="4" t="n">
+        <f aca="false">+C5/$C$6</f>
+        <v>0.0789473684210526</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <f aca="false">+D5/$D$6</f>
+        <v>0.5</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <f aca="false">+E5</f>
+        <v>0.191666666666667</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="n">
+        <f aca="false">+SUM(B9:B11)</f>
+        <v>1</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <f aca="false">+SUM(C9:C11)</f>
+        <v>1</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <f aca="false">+SUM(D9:D11)</f>
+        <v>1</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <f aca="false">+SUM(E9:E11)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>